--- a/temp/temp_arquivo.xlsx
+++ b/temp/temp_arquivo.xlsx
@@ -484,156 +484,156 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tiny Glade</t>
+          <t>ELDEN RING</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$39,94</t>
+          <t>R$160,93</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ELDEN RING</t>
+          <t>Cyberpunk 2077</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$160,93</t>
+          <t>R$99,95</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Street Fighter™ 6</t>
+          <t>The Forever Winter</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$124,50</t>
+          <t>R$80,09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® III</t>
+          <t>Street Fighter™ 6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$299,00</t>
+          <t>R$124,50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077</t>
+          <t>Tiny Glade</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$99,95</t>
+          <t>R$39,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>God of War Ragnarök</t>
+          <t>Call of Duty®: Modern Warfare® III</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$249,90</t>
+          <t>R$299,00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DRAGON BALL: Sparking! ZERO</t>
+          <t>God of War Ragnarök</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$282,50</t>
+          <t>R$249,90</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops 6</t>
+          <t>Crusader Kings III</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$339,00</t>
+          <t>R$53,99</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>METAL GEAR SOLID V: THE PHANTOM PAIN</t>
+          <t>DRAGON BALL: Sparking! ZERO</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$59,40</t>
+          <t>R$282,50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Grand Theft Auto V</t>
+          <t>METAL GEAR SOLID V: THE PHANTOM PAIN</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$49,61</t>
+          <t>R$59,40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Crusader Kings III</t>
+          <t>Grand Theft Auto V</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$53,99</t>
+          <t>R$49,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
+          <t>Call of Duty®: Black Ops 6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$22,99</t>
+          <t>R$339,00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Crew Motorfest</t>
+          <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$299,99</t>
+          <t>R$22,99</t>
         </is>
       </c>
     </row>
@@ -676,24 +676,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>eFootball™</t>
+          <t>Crusader Kings III: Roads to Power</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$107,99</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Black Myth: Wukong</t>
+          <t>eFootball™</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R$229,99</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -712,240 +712,240 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NBA 2K25</t>
+          <t>Mortal Kombat 1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$349,90</t>
+          <t>R$229,99</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Crusader Kings III: Roads to Power</t>
+          <t>NBA 2K25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$107,99</t>
+          <t>R$349,90</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077: Phantom Liberty</t>
+          <t>The Crew Motorfest</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R$79,99</t>
+          <t>R$299,99</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ara: History Untold</t>
+          <t>Persona 5 Royal</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$199,00</t>
+          <t>R$99,96</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Persona 5 Royal</t>
+          <t>Cyberpunk 2077: Phantom Liberty</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$99,96</t>
+          <t>R$79,99</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Street Fighter™ 6 - Year 2 Character Pass</t>
+          <t>Magic: The Gathering Arena</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R$129,00</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mortal Kombat 1</t>
+          <t>Baldur's Gate 3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$229,99</t>
+          <t>R$199,99</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Street Fighter™ 6 - Year 2 Character Pass</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$199,99</t>
+          <t>R$129,00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dead by Daylight</t>
+          <t>Frostpunk 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$59,97</t>
+          <t>R$119,95</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>METAL GEAR RISING: REVENGEANCE</t>
+          <t>Black Myth: Wukong</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$29,99</t>
+          <t>R$229,99</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Call of Duty®: Warzone™</t>
+          <t>Ara: History Untold</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$199,00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops III</t>
+          <t>Persona 3 Reload</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$274,00</t>
+          <t>R$179,94</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DEVOUR</t>
+          <t>Dragon's Dogma 2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R$13,59</t>
+          <t>R$159,03</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Resident Evil 4</t>
+          <t>THRONE AND LIBERTY: Early Access Pack - Deluxe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$126,75</t>
+          <t>R$366,98</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cyberwar: Neon City</t>
+          <t>Dead by Daylight</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$23,99</t>
+          <t>R$59,97</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dragon's Dogma 2</t>
+          <t>METAL GEAR RISING: REVENGEANCE</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$159,03</t>
+          <t>R$29,99</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Frostpunk 2</t>
+          <t>DEVOUR</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R$119,95</t>
+          <t>R$13,59</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Persona 3 Reload</t>
+          <t>Black Desert</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R$179,94</t>
+          <t>R$17,46</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A Way Out</t>
+          <t>PUBG: BATTLEGROUNDS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R$17,80</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>FINAL FANTASY XIV Online</t>
+          <t>Call of Duty®: Warzone™</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R$52,99</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -964,72 +964,72 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The Witcher 3: Wild Hunt</t>
+          <t>Microsoft Flight Simulator 40th Anniversary Edition</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R$32,49</t>
+          <t>R$124,97</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>THRONE AND LIBERTY: Early Access Pack - Deluxe</t>
+          <t>A Way Out</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R$366,98</t>
+          <t>R$17,80</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>Cyberwar: Neon City</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R$33,99</t>
+          <t>R$23,99</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Magic: The Gathering Arena</t>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$33,99</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PUBG: BATTLEGROUNDS</t>
+          <t>The Witcher 3: Wild Hunt</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$32,49</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RoboCop: Rogue City</t>
+          <t>Battlefield™ 2042</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R$71,99</t>
+          <t>R$37,35</t>
         </is>
       </c>
     </row>

--- a/temp/temp_arquivo.xlsx
+++ b/temp/temp_arquivo.xlsx
@@ -484,48 +484,48 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELDEN RING</t>
+          <t>The Forever Winter</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$160,93</t>
+          <t>R$80,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077</t>
+          <t>ELDEN RING</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$99,95</t>
+          <t>R$160,93</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Forever Winter</t>
+          <t>Street Fighter™ 6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$80,09</t>
+          <t>R$124,50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Street Fighter™ 6</t>
+          <t>Cyberpunk 2077</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$124,50</t>
+          <t>R$99,95</t>
         </is>
       </c>
     </row>
@@ -544,36 +544,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Call of Duty®: Modern Warfare® III</t>
+          <t>God of War Ragnarök</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$299,00</t>
+          <t>R$249,90</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>God of War Ragnarök</t>
+          <t>Crusader Kings III</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$249,90</t>
+          <t>R$53,99</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Crusader Kings III</t>
+          <t>Call of Duty®: Modern Warfare® III</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$53,99</t>
+          <t>R$299,00</t>
         </is>
       </c>
     </row>
@@ -592,60 +592,60 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>METAL GEAR SOLID V: THE PHANTOM PAIN</t>
+          <t>Grand Theft Auto V</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$59,40</t>
+          <t>R$49,61</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Grand Theft Auto V</t>
+          <t>METAL GEAR SOLID V: THE PHANTOM PAIN</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$49,61</t>
+          <t>R$59,40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Call of Duty®: Black Ops 6</t>
+          <t>Warhammer 40,000: Space Marine 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$339,00</t>
+          <t>R$199,90</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
+          <t>Call of Duty®: Black Ops 6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$22,99</t>
+          <t>R$339,00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Warhammer 40,000: Space Marine 2</t>
+          <t>ACE COMBAT™ 7: SKIES UNKNOWN</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$199,90</t>
+          <t>R$22,99</t>
         </is>
       </c>
     </row>
@@ -664,31 +664,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dota 2</t>
+          <t>Crusader Kings III: Roads to Power</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$107,99</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crusader Kings III: Roads to Power</t>
+          <t>Dota 2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$107,99</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>eFootball™</t>
+          <t>Magic: The Gathering Arena</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,252 +700,252 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FINAL FANTASY XVI</t>
+          <t>Mortal Kombat 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R$219,90</t>
+          <t>R$229,99</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mortal Kombat 1</t>
+          <t>FINAL FANTASY XVI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$229,99</t>
+          <t>R$219,90</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NBA 2K25</t>
+          <t>eFootball™</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$349,90</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The Crew Motorfest</t>
+          <t>Black Myth: Wukong</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R$299,99</t>
+          <t>R$229,99</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Persona 5 Royal</t>
+          <t>Baldur's Gate 3</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$99,96</t>
+          <t>R$199,99</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cyberpunk 2077: Phantom Liberty</t>
+          <t>Persona 3 Reload</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$79,99</t>
+          <t>R$179,94</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Magic: The Gathering Arena</t>
+          <t>Street Fighter™ 6 - Year 2 Character Pass</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$129,00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Baldur's Gate 3</t>
+          <t>Persona 5 Royal</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$199,99</t>
+          <t>R$99,96</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Street Fighter™ 6 - Year 2 Character Pass</t>
+          <t>NBA 2K25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$129,00</t>
+          <t>R$349,90</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Frostpunk 2</t>
+          <t>Cyberpunk 2077: Phantom Liberty</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$119,95</t>
+          <t>R$79,99</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Black Myth: Wukong</t>
+          <t>Frostpunk 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$229,99</t>
+          <t>R$119,95</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ara: History Untold</t>
+          <t>THRONE AND LIBERTY: Early Access Pack - Deluxe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R$199,00</t>
+          <t>R$366,98</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Persona 3 Reload</t>
+          <t>Dragon's Dogma 2</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$179,94</t>
+          <t>R$159,03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Dragon's Dogma 2</t>
+          <t>DEVOUR</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R$159,03</t>
+          <t>R$13,59</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>THRONE AND LIBERTY: Early Access Pack - Deluxe</t>
+          <t>Dead by Daylight</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$366,98</t>
+          <t>R$59,97</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dead by Daylight</t>
+          <t>Microsoft Flight Simulator 40th Anniversary Edition</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$59,97</t>
+          <t>R$124,97</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>METAL GEAR RISING: REVENGEANCE</t>
+          <t>The Crew Motorfest</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$29,99</t>
+          <t>R$299,99</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DEVOUR</t>
+          <t>METAL GEAR RISING: REVENGEANCE</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R$13,59</t>
+          <t>R$29,99</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Black Desert</t>
+          <t>Call of Duty®: Warzone™</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R$17,46</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PUBG: BATTLEGROUNDS</t>
+          <t>Black Desert</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$17,46</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Call of Duty®: Warzone™</t>
+          <t>Tom Clancy's Rainbow Six® Siege</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>R$33,99</t>
         </is>
       </c>
     </row>
@@ -964,72 +964,72 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Microsoft Flight Simulator 40th Anniversary Edition</t>
+          <t>PUBG: BATTLEGROUNDS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R$124,97</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A Way Out</t>
+          <t>The Witcher 3: Wild Hunt</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R$17,80</t>
+          <t>R$32,49</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cyberwar: Neon City</t>
+          <t>Age of Mythology: Retold</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>R$23,99</t>
+          <t>R$99,99</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Tom Clancy's Rainbow Six® Siege</t>
+          <t>Resident Evil 4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R$33,99</t>
+          <t>R$126,75</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>The Witcher 3: Wild Hunt</t>
+          <t>Ara: History Untold</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>R$32,49</t>
+          <t>R$199,00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Battlefield™ 2042</t>
+          <t>GrandChase</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>R$37,35</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
